--- a/CLEAN/JulySales2025_clean.xlsx
+++ b/CLEAN/JulySales2025_clean.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0009407</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0009408</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -657,7 +657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0009409</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -726,7 +726,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0009410</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -791,7 +791,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0009411</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -856,7 +856,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0009412</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -921,7 +921,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0009413</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -986,7 +986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0009414</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1051,7 +1051,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0009415</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1116,7 +1116,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0009416</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1181,7 +1181,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0009417</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1250,7 +1250,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0009418</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1315,7 +1315,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0009419</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1380,7 +1380,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0009420</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1445,7 +1445,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0009421</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1510,7 +1510,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0009422</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1575,7 +1575,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0009423</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1640,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0009424</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1705,7 +1705,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0009425</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1774,7 +1774,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0009426</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1839,7 +1839,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0009427</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1908,7 +1908,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0009428</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1973,7 +1973,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0009429</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2042,7 +2042,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0009430</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2107,7 +2107,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0009431</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2176,7 +2176,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0009432</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2241,7 +2241,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0009433</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2306,7 +2306,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0009434</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2371,7 +2371,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0009435</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2436,7 +2436,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0009436</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2501,7 +2501,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0009437</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2566,7 +2566,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0009438</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2635,7 +2635,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0009439</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2704,7 +2704,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0009440</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2769,7 +2769,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0009441</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2834,7 +2834,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0009442</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2899,7 +2899,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0009443</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2964,7 +2964,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0009444</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3029,7 +3029,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0009445</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3094,7 +3094,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0009446</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3159,7 +3159,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0009447</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3228,7 +3228,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0009448</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3293,7 +3293,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0009449</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3358,7 +3358,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0009450</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3423,7 +3423,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0009451</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3488,7 +3488,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0009452</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3557,7 +3557,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0009453</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3622,7 +3622,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0009454</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3687,7 +3687,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0009455</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3752,7 +3752,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0009456</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3817,7 +3817,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0009457</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3882,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0009458</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3947,7 +3947,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0009459</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4012,7 +4012,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0009460</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4077,7 +4077,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0009461</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4142,7 +4142,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0009462</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4211,7 +4211,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0009463</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4276,7 +4276,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0009464</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4341,7 +4341,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0009465</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4406,7 +4406,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0009466</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4471,7 +4471,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0009467</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4536,7 +4536,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0009468</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4601,7 +4601,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0009469</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4666,7 +4666,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0009470</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4735,7 +4735,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0009471</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4800,7 +4800,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0009472</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4865,7 +4865,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0009473</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4930,7 +4930,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0009474</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -4995,7 +4995,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0009475</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5060,7 +5060,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0009476</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5125,7 +5125,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0009477</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5190,7 +5190,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0009478</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5255,7 +5255,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0009479</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5320,7 +5320,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0009480</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5389,7 +5389,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0009481</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5454,7 +5454,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0009482</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5519,7 +5519,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0009483</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5584,7 +5584,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0009484</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5649,7 +5649,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0009485</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5714,7 +5714,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0009486</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5779,7 +5779,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0009487</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5844,7 +5844,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0009488</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -5909,7 +5909,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0009489</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -5974,7 +5974,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0009490</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6039,7 +6039,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0009491</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6108,7 +6108,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0009492</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6173,7 +6173,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0009493</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6238,7 +6238,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0009494</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6303,7 +6303,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0009495</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6368,7 +6368,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0009496</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6437,7 +6437,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0009497</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6502,7 +6502,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0009498</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6567,7 +6567,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0009499</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6632,7 +6632,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0009500</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6697,7 +6697,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0009501</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6762,7 +6762,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0009502</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -6827,7 +6827,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0009503</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -6892,7 +6892,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0009504</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -6957,7 +6957,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0009505</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7022,7 +7022,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0009506</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7091,7 +7091,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0009507</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7156,7 +7156,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0009508</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7221,7 +7221,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0009509</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7286,7 +7286,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0009510</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7351,7 +7351,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0009511</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7420,7 +7420,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0009512</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7489,7 +7489,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0009513</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7554,7 +7554,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0009514</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7623,7 +7623,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0009515</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7688,7 +7688,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0009516</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7753,7 +7753,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0009517</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -7818,7 +7818,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0009518</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -7883,7 +7883,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0009519</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -7948,7 +7948,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0009520</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8013,7 +8013,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0009521</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8078,7 +8078,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0009522</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8143,7 +8143,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0009523</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8208,7 +8208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0009524</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8273,7 +8273,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0009525</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8338,7 +8338,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0009526</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8403,7 +8403,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0009527</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8468,7 +8468,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0009528</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8533,7 +8533,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0009529</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -8598,7 +8598,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0009530</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -8663,7 +8663,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0009531</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -8728,7 +8728,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0009532</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -8793,7 +8793,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0009533</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -8858,7 +8858,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0009534</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -8923,7 +8923,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0009535</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -8988,7 +8988,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0009536</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9053,7 +9053,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0009537</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9118,7 +9118,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0009538</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9183,7 +9183,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0009539</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9248,7 +9248,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0009540</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9313,7 +9313,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0009541</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -9378,7 +9378,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0009542</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -9443,7 +9443,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0009543</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -9512,7 +9512,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0009544</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -9577,7 +9577,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0009545</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -9642,7 +9642,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0009546</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -9707,7 +9707,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0009547</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -9772,7 +9772,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0009548</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -9837,7 +9837,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0009549</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -9902,7 +9902,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0009550</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -9967,7 +9967,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0009551</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10032,7 +10032,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0009552</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10097,7 +10097,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0009553</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10162,7 +10162,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0009554</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10227,7 +10227,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0009555</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -10292,7 +10292,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0009556</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -10357,7 +10357,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0009557</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -10422,7 +10422,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0009558</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -10487,7 +10487,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0009559</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -10552,7 +10552,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0009560</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -10621,7 +10621,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0009561</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -10686,7 +10686,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0009562</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -10751,7 +10751,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0009563</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -10816,7 +10816,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0009564</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -10881,7 +10881,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0009565</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -10946,7 +10946,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0009566</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11011,7 +11011,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0009567</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11080,7 +11080,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0009568</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11145,7 +11145,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0009569</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -11210,7 +11210,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0009570</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -11275,7 +11275,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0009571</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -11340,7 +11340,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0009572</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -11405,7 +11405,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0009573</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -11470,7 +11470,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0009574</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -11535,7 +11535,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0009575</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -11600,7 +11600,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0009576</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -11665,7 +11665,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0009577</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -11730,7 +11730,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0009578</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -11795,7 +11795,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0009579</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -11860,7 +11860,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0009580</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -11925,7 +11925,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0009581</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -11990,7 +11990,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0009582</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12055,7 +12055,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0009583</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -12120,7 +12120,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0009584</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -12185,7 +12185,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0009585</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -12250,7 +12250,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0009586</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -12315,7 +12315,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0009587</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -12380,7 +12380,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0009588</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -12445,7 +12445,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0009589</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -12510,7 +12510,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0009590</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -12575,7 +12575,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0009591</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -12640,7 +12640,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0009592</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -12709,7 +12709,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0009593</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -12774,7 +12774,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0009594</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -12843,7 +12843,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0009595</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -12908,7 +12908,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0009596</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -12973,7 +12973,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0009597</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -13038,7 +13038,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0009598</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -13103,7 +13103,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0009599</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -13168,7 +13168,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0009600</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -13233,7 +13233,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0009601</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -13298,7 +13298,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0009602</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -13363,7 +13363,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0009603</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -13428,7 +13428,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0009604</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -13493,7 +13493,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0009605</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -13558,7 +13558,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0009606</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -13623,7 +13623,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0009607</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -13688,7 +13688,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0009608</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -13753,7 +13753,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0009609</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -13818,7 +13818,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0009610</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -13887,7 +13887,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0009611</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -13952,7 +13952,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0009612</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -14017,7 +14017,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0009613</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -14082,7 +14082,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0009614</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -14151,7 +14151,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0009615</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -14216,7 +14216,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0009616</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -14281,7 +14281,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0009617</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -14346,7 +14346,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0009618</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -14411,7 +14411,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0009619</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -14476,7 +14476,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0009620</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -14541,7 +14541,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0009621</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -14606,7 +14606,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0009622</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -14671,7 +14671,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0009623</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -14736,7 +14736,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0009624</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -14801,7 +14801,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0009625</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -14866,7 +14866,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0009626</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -14931,7 +14931,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0009627</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -14996,7 +14996,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0009628</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -15061,7 +15061,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0009629</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -15126,7 +15126,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0009630</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -15191,7 +15191,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0009631</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -15256,7 +15256,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0009632</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -15321,7 +15321,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0009633</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -15390,7 +15390,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0009634</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -15455,7 +15455,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0009635</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -15520,7 +15520,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0009636</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -15585,7 +15585,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0009637</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -15650,7 +15650,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0009638</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15715,7 +15715,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0009639</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -15780,7 +15780,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0009640</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -15845,7 +15845,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0009641</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -15910,7 +15910,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0009642</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -15975,7 +15975,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0009643</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -16040,7 +16040,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0009644</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -16105,7 +16105,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0009645</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -16170,7 +16170,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0009646</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -16235,7 +16235,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0009647</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -16300,7 +16300,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0009648</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -16365,7 +16365,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0009649</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -16430,7 +16430,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0009650</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -16495,7 +16495,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0009651</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -16560,7 +16560,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0009652</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -16625,7 +16625,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0009653</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -16690,7 +16690,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0009654</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -16755,7 +16755,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0009655</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -16820,7 +16820,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0009656</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -16885,7 +16885,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0009657</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -16950,7 +16950,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0009658</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -17015,7 +17015,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0009659</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -17080,7 +17080,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0009660</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -17145,7 +17145,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0009661</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -17210,7 +17210,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0009662</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -17275,7 +17275,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0009663</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -17340,7 +17340,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0009664</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -17405,7 +17405,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0009665</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -17470,7 +17470,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0009666</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -17535,7 +17535,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0009667</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -17604,7 +17604,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0009668</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -17669,7 +17669,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0009669</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -17734,7 +17734,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0009670</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -17799,7 +17799,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0009671</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -17864,7 +17864,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0009672</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -17933,7 +17933,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0009673</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -17998,7 +17998,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0009674</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -18063,7 +18063,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0009675</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -18128,7 +18128,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0009676</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -18193,7 +18193,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0009677</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -18258,7 +18258,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0009678</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -18323,7 +18323,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0009679</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -18388,7 +18388,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0009680</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -18453,7 +18453,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0009681</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -18518,7 +18518,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0009682</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -18583,7 +18583,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0009683</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -18648,7 +18648,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0009684</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -18717,7 +18717,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0009685</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -18782,7 +18782,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0009686</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -18847,7 +18847,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0009687</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -18912,7 +18912,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0009688</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -18977,7 +18977,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0009689</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -19046,7 +19046,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0009690</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -19111,7 +19111,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0009691</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -19176,7 +19176,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0009692</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -19241,7 +19241,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0009693</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -19306,7 +19306,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0009694</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -19375,7 +19375,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0009695</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -19440,7 +19440,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0009696</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -19505,7 +19505,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0009697</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -19574,7 +19574,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0009698</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -19639,7 +19639,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0009699</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -19704,7 +19704,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0009700</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -19769,7 +19769,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0009701</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -19834,7 +19834,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0009702</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -19899,7 +19899,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0009703</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -19968,7 +19968,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0009704</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -20033,7 +20033,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0009705</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -20098,7 +20098,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0009706</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -20163,7 +20163,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0009707</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -20228,7 +20228,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0009708</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -20293,7 +20293,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0009709</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -20358,7 +20358,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0009710</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -20423,7 +20423,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0009711</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -20488,7 +20488,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0009712</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -20553,7 +20553,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0009713</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -20618,7 +20618,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0009714</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -20683,7 +20683,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0009715</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -20748,7 +20748,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0009716</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -20813,7 +20813,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0009717</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -20878,7 +20878,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0009718</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -20943,7 +20943,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0009719</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -21008,7 +21008,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0009720</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -21073,7 +21073,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0009721</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -21138,7 +21138,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0009722</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -21203,7 +21203,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0009723</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -21268,7 +21268,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0009724</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -21337,7 +21337,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0009725</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -21402,7 +21402,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0009726</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -21467,7 +21467,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0009727</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -21532,7 +21532,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0009728</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -21601,7 +21601,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0009729</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -21670,7 +21670,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0009730</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -21735,7 +21735,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0009731</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -21800,7 +21800,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0009732</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -21869,7 +21869,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0009733</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -21934,7 +21934,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0009734</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -22003,7 +22003,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0009735</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -22068,7 +22068,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0009736</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -22133,7 +22133,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0009737</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -22198,7 +22198,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0009738</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -22263,7 +22263,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0009739</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -22332,7 +22332,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0009740</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -22397,7 +22397,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0009741</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -22462,7 +22462,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0009742</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -22527,7 +22527,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0009743</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -22592,7 +22592,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0009744</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -22657,7 +22657,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0009745</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -22726,7 +22726,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0009746</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -22791,7 +22791,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0009747</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -22860,7 +22860,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0009748</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -22925,7 +22925,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0009749</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -22990,7 +22990,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0009750</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -23055,7 +23055,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0009751</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -23120,7 +23120,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0009752</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -23185,7 +23185,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0009753</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -23250,7 +23250,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0009754</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -23315,7 +23315,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0009755</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -23380,7 +23380,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0009756</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -23445,7 +23445,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0009757</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -23510,7 +23510,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0009758</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -23575,7 +23575,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0009759</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -23640,7 +23640,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0009760</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -23705,7 +23705,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0009761</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -23770,7 +23770,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0009762</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -23835,7 +23835,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0009763</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -23904,7 +23904,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0009764</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -23973,7 +23973,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0009765</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -24038,7 +24038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0009766</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -24103,7 +24103,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0009767</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -24172,7 +24172,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0009768</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -24237,7 +24237,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0009769</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -24302,7 +24302,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0009770</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -24367,7 +24367,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0009771</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -24432,7 +24432,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0009772</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -24497,7 +24497,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0009773</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -24562,7 +24562,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0009774</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -24627,7 +24627,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0009775</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -24692,7 +24692,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0009776</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -24757,7 +24757,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0009777</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -24822,7 +24822,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0009778</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -24887,7 +24887,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0009779</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -24956,7 +24956,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0009780</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -25021,7 +25021,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0009781</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -25086,7 +25086,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0009782</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -25151,7 +25151,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0009783</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -25216,7 +25216,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0009784</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -25281,7 +25281,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0009785</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -25346,7 +25346,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0009786</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -25411,7 +25411,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0009787</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -25476,7 +25476,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0009788</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -25541,7 +25541,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0009789</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -25606,7 +25606,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0009790</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -25671,7 +25671,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0009791</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -25740,7 +25740,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0009792</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -25805,7 +25805,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0009793</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -25870,7 +25870,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0009794</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -25935,7 +25935,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0009795</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -26000,7 +26000,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0009796</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -26065,7 +26065,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0009797</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -26130,7 +26130,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0009798</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -26195,7 +26195,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0009799</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -26260,7 +26260,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0009800</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -26325,7 +26325,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0009801</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -26394,7 +26394,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0009802</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -26463,7 +26463,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0009803</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -26528,7 +26528,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0009804</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -26593,7 +26593,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0009805</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -26658,7 +26658,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0009806</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -26723,7 +26723,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0009807</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -26792,7 +26792,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0009808</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -26861,7 +26861,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0009809</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -26926,7 +26926,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0009810</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -26991,7 +26991,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0009811</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -27060,7 +27060,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0009812</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -27125,7 +27125,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0009813</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -27190,7 +27190,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0009814</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -27255,7 +27255,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0009815</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -27320,7 +27320,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0009816</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -27385,7 +27385,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0009817</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -27450,7 +27450,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0009818</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -27515,7 +27515,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0009819</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -27580,7 +27580,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0009820</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -27645,7 +27645,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0009821</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -27710,7 +27710,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0009822</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -27775,7 +27775,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0009823</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -27840,7 +27840,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0009824</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -27905,7 +27905,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0009825</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -27970,7 +27970,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0009826</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -28035,7 +28035,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0009827</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -28100,7 +28100,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0009828</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -28169,7 +28169,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0009829</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -28234,7 +28234,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0009830</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -28299,7 +28299,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0009831</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -28364,7 +28364,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0009832</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -28429,7 +28429,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0009833</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -28494,7 +28494,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0009834</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -28559,7 +28559,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0009835</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -28624,7 +28624,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0009836</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -28689,7 +28689,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0009837</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -28754,7 +28754,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0009838</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -28819,7 +28819,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0009839</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -28884,7 +28884,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0009840</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -28949,7 +28949,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0009841</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -29014,7 +29014,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0009842</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -29079,7 +29079,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0009843</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -29144,7 +29144,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0009844</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -29209,7 +29209,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0009845</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -29278,7 +29278,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0009846</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -29347,7 +29347,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0009847</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -29412,7 +29412,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0009848</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -29477,7 +29477,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0009849</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -29542,7 +29542,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0009850</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -29607,7 +29607,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0009851</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -29672,7 +29672,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0009852</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -29737,7 +29737,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0009853</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -29806,7 +29806,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0009854</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -29871,7 +29871,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0009855</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -29936,7 +29936,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0009856</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -30001,7 +30001,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0009857</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -30070,7 +30070,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0009858</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -30135,7 +30135,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0009859</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -30200,7 +30200,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0009860</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -30265,7 +30265,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0009861</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -30330,7 +30330,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0009862</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -30395,7 +30395,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0009863</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -30460,7 +30460,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0009864</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -30529,7 +30529,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0009865</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -30594,7 +30594,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0009866</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -30659,7 +30659,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0009867</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -30724,7 +30724,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0009868</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -30789,7 +30789,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0009869</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -30854,7 +30854,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0009870</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -30919,7 +30919,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0009871</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -30988,7 +30988,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0009872</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -31053,7 +31053,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0009873</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -31118,7 +31118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0009874</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -31183,7 +31183,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0009875</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -31248,7 +31248,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0009876</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -31317,7 +31317,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0009877</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -31382,7 +31382,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0009878</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -31451,7 +31451,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0009879</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -31516,7 +31516,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0009880</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -31581,7 +31581,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0009881</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -31646,7 +31646,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0009882</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -31711,7 +31711,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0009883</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -31780,7 +31780,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0009884</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -31845,7 +31845,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0009885</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -31910,7 +31910,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0009886</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -31979,7 +31979,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0009887</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -32044,7 +32044,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0009888</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -32109,7 +32109,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0009889</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -32174,7 +32174,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0009890</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -32239,7 +32239,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0009891</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -32304,7 +32304,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0009892</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -32369,7 +32369,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0009893</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -32434,7 +32434,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0009894</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -32499,7 +32499,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0009895</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -32564,7 +32564,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0009896</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -32629,7 +32629,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0009897</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -32698,7 +32698,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0009898</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -32763,7 +32763,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0009899</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -32828,7 +32828,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0009900</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -32893,7 +32893,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0009901</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -32958,7 +32958,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0009902</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -33027,7 +33027,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0009903</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -33092,7 +33092,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0009904</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -33157,7 +33157,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0009905</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -33222,7 +33222,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0009906</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -33287,7 +33287,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0009907</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -33352,7 +33352,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0009908</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -33417,7 +33417,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0009909</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -33482,7 +33482,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0009910</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -33547,7 +33547,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0009911</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -33616,7 +33616,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0009912</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -33685,7 +33685,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0009913</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -33750,7 +33750,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0009914</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -33815,7 +33815,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0009915</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -33880,7 +33880,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0009916</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -33945,7 +33945,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0009917</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -34010,7 +34010,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0009918</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -34075,7 +34075,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0009919</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -34140,7 +34140,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0009920</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -34205,7 +34205,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0009921</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -34270,7 +34270,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0009922</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -34335,7 +34335,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0009923</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -34400,7 +34400,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0009924</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -34465,7 +34465,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0009925</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -34530,7 +34530,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0009926</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -34599,7 +34599,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0009927</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -34664,7 +34664,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0009928</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -34729,7 +34729,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0009929</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -34794,7 +34794,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0009930</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -34859,7 +34859,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0009931</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -34924,7 +34924,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0009932</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -34989,7 +34989,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0009933</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -35054,7 +35054,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0009934</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -35119,7 +35119,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0009935</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -35184,7 +35184,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0009936</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -35249,7 +35249,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0009937</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -35314,7 +35314,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0009938</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -35379,7 +35379,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0009939</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -35444,7 +35444,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0009940</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -35509,7 +35509,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0009941</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -35574,7 +35574,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0009942</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -35639,7 +35639,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0009943</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -35704,7 +35704,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0009944</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -35769,7 +35769,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0009945</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -35838,7 +35838,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0009946</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -35907,7 +35907,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0009947</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -35972,7 +35972,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0009948</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -36037,7 +36037,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0009949</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -36102,7 +36102,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0009950</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -36171,7 +36171,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0009951</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -36236,7 +36236,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0009952</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -36305,7 +36305,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0009953</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -36374,7 +36374,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0009954</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -36439,7 +36439,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0009955</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -36504,7 +36504,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0009956</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -36569,7 +36569,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0009957</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -36634,7 +36634,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0009958</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -36699,7 +36699,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0009959</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -36764,7 +36764,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0009960</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -36833,7 +36833,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0009961</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -36898,7 +36898,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0009962</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -36967,7 +36967,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0009963</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -37032,7 +37032,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0009964</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -37097,7 +37097,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0009965</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -37162,7 +37162,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0009966</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -37227,7 +37227,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0009967</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -37292,7 +37292,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0009968</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -37357,7 +37357,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0009969</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -37422,7 +37422,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0009970</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -37487,7 +37487,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0009971</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -37552,7 +37552,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0009972</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -37621,7 +37621,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0009973</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -37686,7 +37686,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0009974</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -37751,7 +37751,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0009975</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -37816,7 +37816,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0009976</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -37881,7 +37881,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0009977</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -37946,7 +37946,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0009978</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -38011,7 +38011,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0009979</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -38076,7 +38076,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0009980</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -38141,7 +38141,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0009981</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -38206,7 +38206,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0009982</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -38271,7 +38271,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0009983</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -38336,7 +38336,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0009984</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -38401,7 +38401,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0009985</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -38466,7 +38466,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0009986</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -38531,7 +38531,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0009987</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -38596,7 +38596,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0009988</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -38661,7 +38661,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0009989</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -38726,7 +38726,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0009990</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -38791,7 +38791,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0009991</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -38856,7 +38856,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0009992</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -38921,7 +38921,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0009993</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -38986,7 +38986,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0009994</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -39051,7 +39051,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0009995</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -39116,7 +39116,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0009996</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -39181,7 +39181,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0009997</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -39246,7 +39246,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0009998</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -39311,7 +39311,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0009999</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -39376,7 +39376,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0010000</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -39445,7 +39445,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0010001</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -39510,7 +39510,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010002</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -39575,7 +39575,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0010003</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -39640,7 +39640,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010004</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -39705,7 +39705,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0010005</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -39770,7 +39770,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0010006</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -39835,7 +39835,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0010007</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -39900,7 +39900,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0010008</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -39965,7 +39965,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0010009</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -40030,7 +40030,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0010010</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -40095,7 +40095,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0010011</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -40160,7 +40160,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0010012</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -40225,7 +40225,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0010013</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -40290,7 +40290,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0010014</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -40355,7 +40355,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0010015</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -40420,7 +40420,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0010016</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -40485,7 +40485,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0010017</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -40550,7 +40550,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0010018</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -40615,7 +40615,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0010019</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -40680,7 +40680,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0010020</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -40745,7 +40745,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0010021</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -40814,7 +40814,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0010022</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -40879,7 +40879,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0010023</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -40944,7 +40944,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0010024</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -41009,7 +41009,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0010025</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -41074,7 +41074,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0010026</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -41139,7 +41139,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000621</t>
+          <t>ORD_0010027</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -41204,7 +41204,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000622</t>
+          <t>ORD_0010028</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -41269,7 +41269,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000623</t>
+          <t>ORD_0010029</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -41334,7 +41334,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000624</t>
+          <t>ORD_0010030</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -41399,7 +41399,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000625</t>
+          <t>ORD_0010031</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -41464,7 +41464,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000626</t>
+          <t>ORD_0010032</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -41529,7 +41529,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000627</t>
+          <t>ORD_0010033</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -41598,7 +41598,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000628</t>
+          <t>ORD_0010034</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -41663,7 +41663,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000629</t>
+          <t>ORD_0010035</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -41728,7 +41728,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000630</t>
+          <t>ORD_0010036</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -41793,7 +41793,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000631</t>
+          <t>ORD_0010037</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -41858,7 +41858,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000632</t>
+          <t>ORD_0010038</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -41923,7 +41923,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000633</t>
+          <t>ORD_0010039</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -41988,7 +41988,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000634</t>
+          <t>ORD_0010040</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -42053,7 +42053,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000635</t>
+          <t>ORD_0010041</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -42118,7 +42118,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000636</t>
+          <t>ORD_0010042</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -42183,7 +42183,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000637</t>
+          <t>ORD_0010043</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -42248,7 +42248,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000638</t>
+          <t>ORD_0010044</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -42313,7 +42313,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0010045</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -42378,7 +42378,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000640</t>
+          <t>ORD_0010046</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -42443,7 +42443,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000641</t>
+          <t>ORD_0010047</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -42508,7 +42508,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000642</t>
+          <t>ORD_0010048</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -42573,7 +42573,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000643</t>
+          <t>ORD_0010049</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -42638,7 +42638,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000644</t>
+          <t>ORD_0010050</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -42707,7 +42707,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000645</t>
+          <t>ORD_0010051</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -42772,7 +42772,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000646</t>
+          <t>ORD_0010052</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -42837,7 +42837,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000647</t>
+          <t>ORD_0010053</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -42902,7 +42902,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000648</t>
+          <t>ORD_0010054</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -42967,7 +42967,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000649</t>
+          <t>ORD_0010055</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -43032,7 +43032,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000650</t>
+          <t>ORD_0010056</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -43097,7 +43097,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000651</t>
+          <t>ORD_0010057</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -43162,7 +43162,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000652</t>
+          <t>ORD_0010058</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -43227,7 +43227,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000653</t>
+          <t>ORD_0010059</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -43292,7 +43292,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000654</t>
+          <t>ORD_0010060</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -43357,7 +43357,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000655</t>
+          <t>ORD_0010061</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -43422,7 +43422,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000656</t>
+          <t>ORD_0010062</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -43491,7 +43491,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000657</t>
+          <t>ORD_0010063</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -43556,7 +43556,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000658</t>
+          <t>ORD_0010064</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -43621,7 +43621,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000659</t>
+          <t>ORD_0010065</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -43686,7 +43686,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000660</t>
+          <t>ORD_0010066</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -43751,7 +43751,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000661</t>
+          <t>ORD_0010067</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -43816,7 +43816,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010068</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -43881,7 +43881,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000663</t>
+          <t>ORD_0010069</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -43946,7 +43946,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000664</t>
+          <t>ORD_0010070</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -44011,7 +44011,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000665</t>
+          <t>ORD_0010071</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -44076,7 +44076,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000666</t>
+          <t>ORD_0010072</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -44141,7 +44141,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000667</t>
+          <t>ORD_0010073</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -44206,7 +44206,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000668</t>
+          <t>ORD_0010074</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -44271,7 +44271,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000669</t>
+          <t>ORD_0010075</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -44336,7 +44336,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000670</t>
+          <t>ORD_0010076</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -44401,7 +44401,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000671</t>
+          <t>ORD_0010077</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -44466,7 +44466,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000672</t>
+          <t>ORD_0010078</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -44531,7 +44531,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000673</t>
+          <t>ORD_0010079</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -44596,7 +44596,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000674</t>
+          <t>ORD_0010080</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -44661,7 +44661,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000675</t>
+          <t>ORD_0010081</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -44726,7 +44726,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000676</t>
+          <t>ORD_0010082</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -44791,7 +44791,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000677</t>
+          <t>ORD_0010083</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -44856,7 +44856,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0010084</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -44921,7 +44921,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000679</t>
+          <t>ORD_0010085</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -44986,7 +44986,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000680</t>
+          <t>ORD_0010086</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -45051,7 +45051,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000681</t>
+          <t>ORD_0010087</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -45116,7 +45116,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000682</t>
+          <t>ORD_0010088</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -45181,7 +45181,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000683</t>
+          <t>ORD_0010089</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -45246,7 +45246,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000684</t>
+          <t>ORD_0010090</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -45311,7 +45311,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000685</t>
+          <t>ORD_0010091</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -45376,7 +45376,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000686</t>
+          <t>ORD_0010092</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -45441,7 +45441,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000687</t>
+          <t>ORD_0010093</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -45506,7 +45506,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000688</t>
+          <t>ORD_0010094</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -45571,7 +45571,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000689</t>
+          <t>ORD_0010095</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -45636,7 +45636,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000690</t>
+          <t>ORD_0010096</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -45701,7 +45701,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000691</t>
+          <t>ORD_0010097</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -45766,7 +45766,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000692</t>
+          <t>ORD_0010098</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -45831,7 +45831,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000693</t>
+          <t>ORD_0010099</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -45896,7 +45896,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000694</t>
+          <t>ORD_0010100</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -45965,7 +45965,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000695</t>
+          <t>ORD_0010101</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -46030,7 +46030,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000696</t>
+          <t>ORD_0010102</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -46095,7 +46095,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000697</t>
+          <t>ORD_0010103</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -46160,7 +46160,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ORD_0000698</t>
+          <t>ORD_0010104</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -46225,7 +46225,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ORD_0000699</t>
+          <t>ORD_0010105</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -46290,7 +46290,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ORD_0000700</t>
+          <t>ORD_0010106</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -46355,7 +46355,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ORD_0000701</t>
+          <t>ORD_0010107</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -46420,7 +46420,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ORD_0000702</t>
+          <t>ORD_0010108</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -46485,7 +46485,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ORD_0000703</t>
+          <t>ORD_0010109</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -46550,7 +46550,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ORD_0000704</t>
+          <t>ORD_0010110</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -46619,7 +46619,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ORD_0000705</t>
+          <t>ORD_0010111</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -46684,7 +46684,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ORD_0000706</t>
+          <t>ORD_0010112</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -46749,7 +46749,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ORD_0000707</t>
+          <t>ORD_0010113</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -46814,7 +46814,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ORD_0000708</t>
+          <t>ORD_0010114</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -46879,7 +46879,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ORD_0000709</t>
+          <t>ORD_0010115</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -46944,7 +46944,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ORD_0000710</t>
+          <t>ORD_0010116</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -47009,7 +47009,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ORD_0000711</t>
+          <t>ORD_0010117</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -47078,7 +47078,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ORD_0000712</t>
+          <t>ORD_0010118</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -47143,7 +47143,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ORD_0000713</t>
+          <t>ORD_0010119</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -47208,7 +47208,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ORD_0000714</t>
+          <t>ORD_0010120</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -47277,7 +47277,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ORD_0000715</t>
+          <t>ORD_0010121</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -47342,7 +47342,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ORD_0000716</t>
+          <t>ORD_0010122</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -47407,7 +47407,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ORD_0000717</t>
+          <t>ORD_0010123</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -47472,7 +47472,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ORD_0000718</t>
+          <t>ORD_0010124</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -47541,7 +47541,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ORD_0000719</t>
+          <t>ORD_0010125</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -47606,7 +47606,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ORD_0000720</t>
+          <t>ORD_0010126</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -47671,7 +47671,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ORD_0000721</t>
+          <t>ORD_0010127</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -47736,7 +47736,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ORD_0000722</t>
+          <t>ORD_0010128</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -47801,7 +47801,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ORD_0000723</t>
+          <t>ORD_0010129</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -47866,7 +47866,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ORD_0000724</t>
+          <t>ORD_0010130</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -47931,7 +47931,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ORD_0000725</t>
+          <t>ORD_0010131</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -47996,7 +47996,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ORD_0000726</t>
+          <t>ORD_0010132</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -48061,7 +48061,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ORD_0000727</t>
+          <t>ORD_0010133</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -48126,7 +48126,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ORD_0000728</t>
+          <t>ORD_0010134</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -48191,7 +48191,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ORD_0000729</t>
+          <t>ORD_0010135</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -48256,7 +48256,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ORD_0000730</t>
+          <t>ORD_0010136</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -48321,7 +48321,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ORD_0000731</t>
+          <t>ORD_0010137</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -48386,7 +48386,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ORD_0000732</t>
+          <t>ORD_0010138</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -48451,7 +48451,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ORD_0000733</t>
+          <t>ORD_0010139</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -48516,7 +48516,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ORD_0000734</t>
+          <t>ORD_0010140</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -48581,7 +48581,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ORD_0000735</t>
+          <t>ORD_0010141</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -48646,7 +48646,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>ORD_0000736</t>
+          <t>ORD_0010142</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -48711,7 +48711,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>ORD_0000737</t>
+          <t>ORD_0010143</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -48776,7 +48776,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ORD_0000738</t>
+          <t>ORD_0010144</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -48841,7 +48841,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>ORD_0000739</t>
+          <t>ORD_0010145</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -48906,7 +48906,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>ORD_0000740</t>
+          <t>ORD_0010146</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -48971,7 +48971,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ORD_0000741</t>
+          <t>ORD_0010147</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -49036,7 +49036,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ORD_0000742</t>
+          <t>ORD_0010148</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -49101,7 +49101,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ORD_0000743</t>
+          <t>ORD_0010149</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -49166,7 +49166,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>ORD_0000744</t>
+          <t>ORD_0010150</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -49231,7 +49231,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>ORD_0000745</t>
+          <t>ORD_0010151</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -49296,7 +49296,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>ORD_0000746</t>
+          <t>ORD_0010152</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -49361,7 +49361,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>ORD_0000747</t>
+          <t>ORD_0010153</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -49426,7 +49426,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>ORD_0000748</t>
+          <t>ORD_0010154</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -49491,7 +49491,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ORD_0000749</t>
+          <t>ORD_0010155</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -49556,7 +49556,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ORD_0000750</t>
+          <t>ORD_0010156</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -49621,7 +49621,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>ORD_0000751</t>
+          <t>ORD_0010157</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -49686,7 +49686,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ORD_0000752</t>
+          <t>ORD_0010158</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -49751,7 +49751,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ORD_0000753</t>
+          <t>ORD_0010159</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -49816,7 +49816,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ORD_0000754</t>
+          <t>ORD_0010160</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -49885,7 +49885,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ORD_0000755</t>
+          <t>ORD_0010161</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -49954,7 +49954,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>ORD_0000756</t>
+          <t>ORD_0010162</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -50019,7 +50019,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>ORD_0000757</t>
+          <t>ORD_0010163</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -50088,7 +50088,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>ORD_0000758</t>
+          <t>ORD_0010164</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -50153,7 +50153,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>ORD_0000759</t>
+          <t>ORD_0010165</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -50218,7 +50218,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>ORD_0000760</t>
+          <t>ORD_0010166</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -50283,7 +50283,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>ORD_0000761</t>
+          <t>ORD_0010167</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -50348,7 +50348,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>ORD_0000762</t>
+          <t>ORD_0010168</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -50413,7 +50413,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>ORD_0000763</t>
+          <t>ORD_0010169</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -50478,7 +50478,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>ORD_0000764</t>
+          <t>ORD_0010170</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -50543,7 +50543,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>ORD_0000765</t>
+          <t>ORD_0010171</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -50608,7 +50608,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>ORD_0000766</t>
+          <t>ORD_0010172</t>
         </is>
       </c>
       <c r="B767" t="n">
